--- a/htdocs/App/Controllers/Traspasos/0812CVZ.xlsx
+++ b/htdocs/App/Controllers/Traspasos/0812CVZ.xlsx
@@ -31,7 +31,7 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>06-11-2017</t>
+    <t>02-02-2018</t>
   </si>
   <si>
     <t>Atendido por:</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-11-06</t>
+    <t>2018-02-02</t>
   </si>
   <si>
     <t>x</t>
@@ -64,7 +64,7 @@
     <t>Vendedor:</t>
   </si>
   <si>
-    <t>MOHAMED KOUBEI</t>
+    <t>SERGIO CERRILLO</t>
   </si>
   <si>
     <t>Impresos/Fotocopias…………………….</t>
@@ -82,7 +82,7 @@
     <t>Mail</t>
   </si>
   <si>
-    <t>koubei.16@gmail.com</t>
+    <t>sergiocerrilloruiz@gmail.com</t>
   </si>
   <si>
     <t>Form. Expte …………………………….</t>
@@ -97,13 +97,13 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t>SERGIO CERRILLO</t>
+    <t>Jose Antonio Cerrillo</t>
   </si>
   <si>
     <t>Pago y Gest. IVTM………………</t>
   </si>
   <si>
-    <t>sergiocerrilloruiz@gmail.com</t>
+    <t>jcerrillo2808@gmail.com</t>
   </si>
   <si>
     <t>TOTAL PRESUPUESTO</t>
@@ -1272,7 +1272,7 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="55">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="T13" s="55"/>
       <c r="U13" s="45" t="s">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="56">
-        <v>629116604</v>
+        <v>692525621</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="56">
-        <v>692525621</v>
+        <v>657590436</v>
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
